--- a/PV,ZB_analysis.xlsx
+++ b/PV,ZB_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\presonus-studiolive-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F81BE33-6849-43D7-AE46-0DE343F45057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F5DCC2D2-2804-4C83-B9E6-FCA24E44CC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +169,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,8 +529,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4190,19 +4206,23 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4210,10 +4230,10 @@
       <c r="A2">
         <v>-84</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4221,10 +4241,10 @@
       <c r="A3">
         <v>-58</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.27016300599999998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4232,10 +4252,10 @@
       <c r="A4">
         <v>-56.8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.29489638600000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.148809528</v>
       </c>
     </row>
@@ -4243,10 +4263,10 @@
       <c r="A5">
         <v>-53.5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.31964371699999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.24404757599999999</v>
       </c>
     </row>
@@ -4254,10 +4274,10 @@
       <c r="A6">
         <v>-51.3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.34438407199999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.29761912600000001</v>
       </c>
     </row>
@@ -4265,10 +4285,10 @@
       <c r="A7">
         <v>-49</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.36911745200000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.34523814200000003</v>
       </c>
       <c r="M7" t="s">
@@ -4282,10 +4302,10 @@
       <c r="A8">
         <v>-46.8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.39386478200000002</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.39285719299999999</v>
       </c>
       <c r="M8">
@@ -4299,10 +4319,10 @@
       <c r="A9">
         <v>-44.5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.41859816300000002</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.42261908399999998</v>
       </c>
       <c r="M9">
@@ -4316,10 +4336,10 @@
       <c r="A10">
         <v>-42.3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.44334549299999998</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.44642860099999998</v>
       </c>
       <c r="M10">
@@ -4333,10 +4353,10 @@
       <c r="A11">
         <v>-40</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.46807887300000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.47023815299999999</v>
       </c>
       <c r="M11">
@@ -4350,10 +4370,10 @@
       <c r="A12">
         <v>-39.1</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.47647678399999999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.494047705</v>
       </c>
       <c r="M12">
@@ -4367,10 +4387,10 @@
       <c r="A13">
         <v>-38.200000000000003</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.48488166900000002</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.51785723900000002</v>
       </c>
       <c r="M13">
@@ -4384,10 +4404,10 @@
       <c r="A14">
         <v>-37.299999999999997</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>0.493272604</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.54166666699999999</v>
       </c>
       <c r="M14">
@@ -4401,10 +4421,10 @@
       <c r="A15">
         <v>-36.4</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>0.50167748999999995</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>0.55952384499999996</v>
       </c>
       <c r="M15">
@@ -4418,10 +4438,10 @@
       <c r="A16">
         <v>-36.5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>0.51007539999999996</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>0.57142861199999995</v>
       </c>
       <c r="M16">
@@ -4435,10 +4455,10 @@
       <c r="A17">
         <v>-35.6</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0.51848028499999999</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>0.58333345000000003</v>
       </c>
       <c r="M17">
@@ -4452,10 +4472,10 @@
       <c r="A18">
         <v>-34.700000000000003</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.52687121999999997</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>0.59523811100000001</v>
       </c>
     </row>
@@ -4463,10 +4483,10 @@
       <c r="A19">
         <v>-33.799999999999997</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>0.53526913099999995</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.607142878</v>
       </c>
     </row>
@@ -4474,10 +4494,10 @@
       <c r="A20">
         <v>-32.9</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>0.54367401599999998</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.61904759200000004</v>
       </c>
     </row>
@@ -4485,10 +4505,10 @@
       <c r="A21">
         <v>-32.1</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>0.55206495099999997</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>0.63095243000000001</v>
       </c>
     </row>
@@ -4496,10 +4516,10 @@
       <c r="A22">
         <v>-31.2</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>0.56046983699999997</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.64285719699999999</v>
       </c>
     </row>
@@ -4507,10 +4527,10 @@
       <c r="A23">
         <v>-30.3</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>0.56886774699999998</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>0.65476199999999996</v>
       </c>
     </row>
@@ -4518,10 +4538,10 @@
       <c r="A24">
         <v>-29.4</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>0.57725868199999997</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>0.666666749</v>
       </c>
     </row>
@@ -4529,10 +4549,10 @@
       <c r="A25">
         <v>-28.5</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>0.585663567</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.67857146300000004</v>
       </c>
     </row>
@@ -4540,10 +4560,10 @@
       <c r="A26">
         <v>-28.6</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>0.59406147799999998</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0.690476231</v>
       </c>
     </row>
@@ -4551,10 +4571,10 @@
       <c r="A27">
         <v>-27.7</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>0.602466363</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>0.702380962</v>
       </c>
     </row>
@@ -4562,10 +4582,10 @@
       <c r="A28">
         <v>-26.8</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>0.61085729799999999</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>0.70833335500000005</v>
       </c>
     </row>
@@ -4573,10 +4593,10 @@
       <c r="A29">
         <v>-25.9</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>0.61926218399999999</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>0.71428572899999998</v>
       </c>
     </row>
@@ -4584,10 +4604,10 @@
       <c r="A30">
         <v>-25</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>0.627660094</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>0.72023812200000004</v>
       </c>
     </row>
@@ -4595,10 +4615,10 @@
       <c r="A31">
         <v>-24.1</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>0.63605102899999999</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>0.726190479</v>
       </c>
     </row>
@@ -4606,10 +4626,10 @@
       <c r="A32">
         <v>-23.2</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>0.64445591400000002</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>0.73214288900000002</v>
       </c>
     </row>
@@ -4617,10 +4637,10 @@
       <c r="A33">
         <v>-22.3</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>0.65284684999999998</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>0.73809526400000003</v>
       </c>
     </row>
@@ -4628,10 +4648,10 @@
       <c r="A34">
         <v>-21.4</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>0.66125173500000001</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>0.74404760299999995</v>
       </c>
     </row>
@@ -4639,10 +4659,10 @@
       <c r="A35">
         <v>-21.5</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>0.66964964500000002</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0.75000004899999995</v>
       </c>
     </row>
@@ -4650,10 +4670,10 @@
       <c r="A36">
         <v>-20.6</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>0.67805453100000002</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>0.75595238799999998</v>
       </c>
     </row>
@@ -4661,10 +4681,10 @@
       <c r="A37">
         <v>-19.7</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>0.686445466</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>0.76190477999999995</v>
       </c>
     </row>
@@ -4672,10 +4692,10 @@
       <c r="A38">
         <v>-18.8</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>0.69484337600000001</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>0.76785715499999996</v>
       </c>
     </row>
@@ -4683,10 +4703,10 @@
       <c r="A39">
         <v>-17.899999999999999</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>0.70324826100000004</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>0.77380954800000001</v>
       </c>
     </row>
@@ -4694,10 +4714,10 @@
       <c r="A40">
         <v>-17.100000000000001</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>0.711639197</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>0.77976192200000005</v>
       </c>
     </row>
@@ -4705,10 +4725,10 @@
       <c r="A41">
         <v>-16.2</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>0.72004408200000003</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>0.785714315</v>
       </c>
     </row>
@@ -4716,10 +4736,10 @@
       <c r="A42">
         <v>-15.3</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>0.72844199200000004</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>0.79166669000000001</v>
       </c>
     </row>
@@ -4727,10 +4747,10 @@
       <c r="A43">
         <v>-14.4</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>0.736832928</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>0.79761908199999998</v>
       </c>
     </row>
@@ -4738,10 +4758,10 @@
       <c r="A44">
         <v>-13.5</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>0.74523781300000003</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>0.80357140400000004</v>
       </c>
     </row>
@@ -4749,10 +4769,10 @@
       <c r="A45">
         <v>-13.6</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>0.75363572300000004</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>0.80952379600000002</v>
       </c>
     </row>
@@ -4760,10 +4780,10 @@
       <c r="A46">
         <v>-12.7</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>0.76204060799999995</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>0.81547618799999999</v>
       </c>
     </row>
@@ -4771,10 +4791,10 @@
       <c r="A47">
         <v>-11.8</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>0.77043154400000002</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>0.82142858100000005</v>
       </c>
     </row>
@@ -4782,10 +4802,10 @@
       <c r="A48">
         <v>-10.9</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>0.77883642900000005</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>0.82738095599999995</v>
       </c>
     </row>
@@ -4793,10 +4813,10 @@
       <c r="A49">
         <v>-10</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>0.78723433899999995</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>0.83333334800000003</v>
       </c>
     </row>
@@ -4804,10 +4824,10 @@
       <c r="A50">
         <v>-9.6199999999999992</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>0.79123799399999994</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>0.83928570499999999</v>
       </c>
     </row>
@@ -4815,10 +4835,10 @@
       <c r="A51">
         <v>-9.25</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>0.795262574</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>0.84523808</v>
       </c>
     </row>
@@ -4826,10 +4846,10 @@
       <c r="A52">
         <v>-8.8699999999999992</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>0.79927320400000001</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>0.85119043699999997</v>
       </c>
     </row>
@@ -4837,10 +4857,10 @@
       <c r="A53">
         <v>-8.49</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>0.80329080900000005</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>0.85416664200000003</v>
       </c>
     </row>
@@ -4848,10 +4868,10 @@
       <c r="A54">
         <v>-8.11</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>0.80730143899999995</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>0.85714288199999999</v>
       </c>
     </row>
@@ -4859,10 +4879,10 @@
       <c r="A55">
         <v>-7.74</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>0.81131206899999997</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>0.86011906999999999</v>
       </c>
     </row>
@@ -4870,10 +4890,10 @@
       <c r="A56">
         <v>-7.36</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>0.81533664900000002</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>0.863095257</v>
       </c>
     </row>
@@ -4881,10 +4901,10 @@
       <c r="A57">
         <v>-6.98</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>0.81934030400000002</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>0.86607142699999995</v>
       </c>
     </row>
@@ -4892,10 +4912,10 @@
       <c r="A58">
         <v>-6.6</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>0.82336488399999996</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>0.86904761399999997</v>
       </c>
     </row>
@@ -4903,10 +4923,10 @@
       <c r="A59">
         <v>-6.23</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>0.82737551399999998</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>0.87202380199999996</v>
       </c>
     </row>
@@ -4914,10 +4934,10 @@
       <c r="A60">
         <v>-5.85</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>0.83139311800000004</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>0.87499998899999998</v>
       </c>
     </row>
@@ -4925,10 +4945,10 @@
       <c r="A61">
         <v>-5.47</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>0.83540374799999995</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>0.87797622900000005</v>
       </c>
     </row>
@@ -4936,10 +4956,10 @@
       <c r="A62">
         <v>-5.09</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>0.83941437799999996</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>0.880952399</v>
       </c>
     </row>
@@ -4947,10 +4967,10 @@
       <c r="A63">
         <v>-4.72</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>0.843431983</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>0.88392858600000002</v>
       </c>
     </row>
@@ -4958,10 +4978,10 @@
       <c r="A64">
         <v>-4.34</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>0.84744261300000001</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>0.88690477400000001</v>
       </c>
     </row>
@@ -4969,10 +4989,10 @@
       <c r="A65">
         <v>-3.96</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>0.85146719299999996</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>0.88988096100000003</v>
       </c>
     </row>
@@ -4980,10 +5000,10 @@
       <c r="A66">
         <v>-3.58</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>0.85547782299999997</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>0.89285713099999997</v>
       </c>
     </row>
@@ -4991,10 +5011,10 @@
       <c r="A67">
         <v>-3.21</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>0.85948845299999999</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>0.89583331799999999</v>
       </c>
     </row>
@@ -5002,10 +5022,10 @@
       <c r="A68">
         <v>-2.83</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>0.86350605800000002</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>0.89880955900000004</v>
       </c>
     </row>
@@ -5013,10 +5033,10 @@
       <c r="A69">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>0.86751668800000004</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>0.90178574600000005</v>
       </c>
     </row>
@@ -5024,10 +5044,10 @@
       <c r="A70">
         <v>-2.08</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>0.87153429299999996</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>0.90476193299999996</v>
       </c>
     </row>
@@ -5035,10 +5055,10 @@
       <c r="A71">
         <v>-1.7</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>0.87554492299999997</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>0.90773810300000002</v>
       </c>
     </row>
@@ -5046,10 +5066,10 @@
       <c r="A72">
         <v>-1.32</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>0.87956950199999995</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>0.91071429000000004</v>
       </c>
     </row>
@@ -5057,10 +5077,10 @@
       <c r="A73">
         <v>-0.94</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>0.88358013199999996</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>0.91369047800000003</v>
       </c>
     </row>
@@ -5068,10 +5088,10 @@
       <c r="A74">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>0.88759076199999998</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>0.916666647</v>
       </c>
     </row>
@@ -5079,10 +5099,10 @@
       <c r="A75">
         <v>-0.19</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>0.89160836700000001</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>0.91964290599999998</v>
       </c>
     </row>
@@ -5090,10 +5110,10 @@
       <c r="A76">
         <v>0.19</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>0.89561899700000003</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>0.92261907499999996</v>
       </c>
     </row>
@@ -5101,10 +5121,10 @@
       <c r="A77">
         <v>0.56999999999999995</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>0.89963660199999995</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>0.92559526299999995</v>
       </c>
     </row>
@@ -5112,10 +5132,10 @@
       <c r="A78">
         <v>0.94</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>0.90364723199999997</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>0.92857143200000003</v>
       </c>
     </row>
@@ -5123,10 +5143,10 @@
       <c r="A79">
         <v>1.32</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>0.90765786199999998</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>0.93154762000000002</v>
       </c>
     </row>
@@ -5134,10 +5154,10 @@
       <c r="A80">
         <v>1.7</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>0.91168244200000004</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>0.93452380700000004</v>
       </c>
     </row>
@@ -5145,10 +5165,10 @@
       <c r="A81">
         <v>2.08</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>0.91569307200000005</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>0.93749999399999995</v>
       </c>
     </row>
@@ -5156,10 +5176,10 @@
       <c r="A82">
         <v>2.4500000000000002</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>0.91971067699999998</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>0.94047621699999995</v>
       </c>
     </row>
@@ -5167,10 +5187,10 @@
       <c r="A83">
         <v>2.83</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>0.92372130699999999</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>0.94345240500000005</v>
       </c>
     </row>
@@ -5178,10 +5198,10 @@
       <c r="A84">
         <v>3.21</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>0.92773891100000005</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>0.94642859199999996</v>
       </c>
     </row>
@@ -5189,10 +5209,10 @@
       <c r="A85">
         <v>3.58</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>0.93174954099999996</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>0.94940477899999998</v>
       </c>
     </row>
@@ -5200,10 +5220,10 @@
       <c r="A86">
         <v>3.96</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>0.93576017099999997</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>0.95238096699999997</v>
       </c>
     </row>
@@ -5211,10 +5231,10 @@
       <c r="A87">
         <v>4.34</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>0.93978475100000003</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>0.95535713600000005</v>
       </c>
     </row>
@@ -5222,10 +5242,10 @@
       <c r="A88">
         <v>4.72</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>0.94379538100000004</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>0.95833332400000004</v>
       </c>
     </row>
@@ -5233,10 +5253,10 @@
       <c r="A89">
         <v>5.09</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>0.94781298599999997</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>0.96130956400000001</v>
       </c>
     </row>
@@ -5244,10 +5264,10 @@
       <c r="A90">
         <v>5.47</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>0.95182361599999998</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>0.96428568100000001</v>
       </c>
     </row>
@@ -5255,10 +5275,10 @@
       <c r="A91">
         <v>5.85</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>0.955834246</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <v>0.96726193900000002</v>
       </c>
     </row>
@@ -5266,10 +5286,10 @@
       <c r="A92">
         <v>6.23</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>0.95985185100000003</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <v>0.97023812600000003</v>
       </c>
     </row>
@@ -5277,10 +5297,10 @@
       <c r="A93">
         <v>6.6</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>0.96386248100000005</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <v>0.97321429599999998</v>
       </c>
     </row>
@@ -5288,10 +5308,10 @@
       <c r="A94">
         <v>6.98</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>0.96788706099999999</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <v>0.97619046600000003</v>
       </c>
     </row>
@@ -5299,10 +5319,10 @@
       <c r="A95">
         <v>7.36</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>0.97189769100000001</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
         <v>0.97916665300000005</v>
       </c>
     </row>
@@ -5310,10 +5330,10 @@
       <c r="A96">
         <v>7.74</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>0.97591529499999996</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
         <v>0.98214283999999996</v>
       </c>
     </row>
@@ -5321,10 +5341,10 @@
       <c r="A97">
         <v>8.11</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>0.97992592499999998</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>0.98511902799999995</v>
       </c>
     </row>
@@ -5332,10 +5352,10 @@
       <c r="A98">
         <v>8.49</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>0.98393655499999999</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <v>0.98809525099999995</v>
       </c>
     </row>
@@ -5343,10 +5363,10 @@
       <c r="A99">
         <v>8.8699999999999992</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>0.98795416000000003</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <v>0.99107142000000004</v>
       </c>
     </row>
@@ -5354,10 +5374,10 @@
       <c r="A100">
         <v>9.25</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>0.99196479000000004</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>0.99404760800000003</v>
       </c>
     </row>
@@ -5365,10 +5385,10 @@
       <c r="A101">
         <v>9.6199999999999992</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>0.99598936999999998</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>0.99702381299999998</v>
       </c>
     </row>
@@ -5376,10 +5396,10 @@
       <c r="A102">
         <v>10</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>1</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <v>1</v>
       </c>
     </row>

--- a/PV,ZB_analysis.xlsx
+++ b/PV,ZB_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\presonus-studiolive-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F5DCC2D2-2804-4C83-B9E6-FCA24E44CC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1388BFEA-4D9C-473F-A7B7-3BF7B3D59286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -2407,12 +2407,12 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -4205,14 +4205,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
